--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>76000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,41 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43450,6 +43450,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>221500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,41 @@
         <v>221500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>62400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43520,6 +43520,41 @@
         <v>62400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43662,6 +43662,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>19100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43697,6 +43697,41 @@
         <v>19100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>146300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43732,6 +43732,41 @@
         <v>146300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43802,6 +43802,78 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>108400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,78 @@
         <v>108400</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43981,6 +43981,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44016,6 +44016,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>137100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44051,6 +44051,41 @@
         <v>137100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>240700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44086,6 +44086,76 @@
         <v>240700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>30100</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44156,6 +44156,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44191,6 +44191,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>140700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87346,6 +87346,41 @@
         <v>140700</v>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>125700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87381,6 +87381,41 @@
         <v>125700</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>185400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87416,6 +87416,41 @@
         <v>185400</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>21200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87451,6 +87451,41 @@
         <v>21200</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>124100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2476"/>
+  <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87486,6 +87486,41 @@
         <v>124100</v>
       </c>
     </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>112000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2477"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87521,6 +87521,41 @@
         <v>112000</v>
       </c>
     </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>31100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87556,6 +87556,43 @@
         <v>31100</v>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2479" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87593,6 +87593,43 @@
         </is>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2480" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87630,6 +87630,41 @@
         </is>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>91700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87665,6 +87665,41 @@
         <v>91700</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87700,6 +87700,43 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2483" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2483"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87737,6 +87737,41 @@
         </is>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2484" t="n">
+        <v>56900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87772,6 +87772,41 @@
         <v>56900</v>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2485" t="n">
+        <v>155200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87807,6 +87807,41 @@
         <v>155200</v>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6815.xlsx
+++ b/data/6815.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2486"/>
+  <dimension ref="A1:I2487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87842,6 +87842,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>EUPE</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>47100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
